--- a/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
+++ b/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
@@ -216,27 +216,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -248,6 +248,78 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -258,21 +330,23 @@
   </sheetPr>
   <dimension ref="A2:AN12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO9" activeCellId="0" sqref="AO9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="2.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="10" style="0" width="2.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="2.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="10" style="0" width="6.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="2.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +596,7 @@
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L12" s="1"/>
     </row>
@@ -532,9 +606,17 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:AN4"/>
   </mergeCells>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($G7="Рейсы",IF($E7="Л",J7&lt;2,J7&lt;1))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($G7="Город/Пригород",AND($D7="К",J7="П"))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="61" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="33" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
+++ b/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
@@ -24,9 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Аналитика эксплуатации ТС за {{StartDate.ToString("MM-yyyy")}}г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{StartDate.ToString("yyyy-MM-dd")}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{DateTime.DaysInMonth(StartDate.Year, StartDate.Month)}}</t>
   </si>
   <si>
     <t xml:space="preserve">Выбранные фильтры: {{SelectedIndicatorsString}}</t>
@@ -93,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,6 +126,21 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -135,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -147,6 +168,13 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -165,7 +193,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,8 +217,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,8 +233,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -216,39 +254,49 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Bold" xfId="20"/>
+    <cellStyle name="Hidden" xfId="21"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -258,6 +306,38 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
     </dxf>
   </dxfs>
   <colors>
@@ -330,11 +410,11 @@
   </sheetPr>
   <dimension ref="A2:AN12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM10" activeCellId="0" sqref="AM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.71"/>
@@ -346,7 +426,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="2.57"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -371,238 +451,248 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
+      <c r="AJ2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+    </row>
+    <row r="6" s="11" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="K6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-    </row>
-    <row r="6" s="8" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="L6" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="M6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="N6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="O6" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="P6" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="Q6" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="R6" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="S6" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="J6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="R6" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="S6" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="T6" s="6" t="n">
+      <c r="T6" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="V6" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="W6" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="X6" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" s="6" t="n">
+      <c r="Y6" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="Z6" s="6" t="n">
+      <c r="Z6" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="AA6" s="6" t="n">
+      <c r="AA6" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="AB6" s="6" t="n">
+      <c r="AB6" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="AC6" s="6" t="n">
+      <c r="AC6" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="AD6" s="6" t="n">
+      <c r="AD6" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="AE6" s="6" t="n">
+      <c r="AE6" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="AF6" s="6" t="n">
+      <c r="AF6" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="AG6" s="6" t="n">
+      <c r="AG6" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="AH6" s="6" t="n">
+      <c r="AH6" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="AI6" s="6" t="n">
+      <c r="AI6" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="AJ6" s="6" t="n">
+      <c r="AJ6" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="AK6" s="6" t="n">
+      <c r="AK6" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="AL6" s="6" t="n">
+      <c r="AL6" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="AM6" s="6" t="n">
+      <c r="AM6" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="AN6" s="6" t="n">
+      <c r="AN6" s="7" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="H7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
+      <c r="I7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:W2"/>
+    <mergeCell ref="AJ2:AM2"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:AN4"/>
   </mergeCells>
@@ -614,6 +704,14 @@
       <formula>AND($G7="Город/Пригород",AND($D7="К",J7="П"))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J6:AN6">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>Лист1!$AN$2</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>WEEKDAY(Лист1!$AJ$2+J6-2)&gt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="33" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
+++ b/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
@@ -24,15 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Аналитика эксплуатации ТС за {{StartDate.ToString("MM-yyyy")}}г.</t>
   </si>
   <si>
-    <t xml:space="preserve">{{StartDate.ToString("yyyy-MM-dd")}}</t>
+    <t xml:space="preserve">{{StartDate}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{DateTime.DaysInMonth(StartDate.Year, StartDate.Month)}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{CreationDate}}</t>
   </si>
   <si>
     <t xml:space="preserve">Выбранные фильтры: {{SelectedIndicatorsString}}</t>
@@ -96,8 +99,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -224,7 +228,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -235,6 +239,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -296,7 +304,16 @@
     <cellStyle name="Bold" xfId="20"/>
     <cellStyle name="Hidden" xfId="21"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -324,10 +341,9 @@
       <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -410,11 +426,11 @@
   </sheetPr>
   <dimension ref="A2:AN12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM10" activeCellId="0" sqref="AM10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ2" activeCellId="0" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.71"/>
@@ -457,233 +473,238 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+    </row>
+    <row r="6" s="12" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5" t="s">
+      <c r="M6" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="N6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="O6" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="P6" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="Q6" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="R6" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="S6" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="T6" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="U6" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="J6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="R6" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="S6" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="T6" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="U6" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="V6" s="7" t="n">
+      <c r="V6" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="W6" s="7" t="n">
+      <c r="W6" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="X6" s="7" t="n">
+      <c r="X6" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" s="7" t="n">
+      <c r="Y6" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="Z6" s="7" t="n">
+      <c r="Z6" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="AA6" s="7" t="n">
+      <c r="AA6" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="AB6" s="7" t="n">
+      <c r="AB6" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="AC6" s="7" t="n">
+      <c r="AC6" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="AD6" s="7" t="n">
+      <c r="AD6" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="AE6" s="7" t="n">
+      <c r="AE6" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="AF6" s="7" t="n">
+      <c r="AF6" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="AG6" s="7" t="n">
+      <c r="AG6" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="AH6" s="7" t="n">
+      <c r="AH6" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AI6" s="7" t="n">
+      <c r="AI6" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="AJ6" s="7" t="n">
+      <c r="AJ6" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AK6" s="7" t="n">
+      <c r="AK6" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="AL6" s="7" t="n">
+      <c r="AL6" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AM6" s="7" t="n">
+      <c r="AM6" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="AN6" s="7" t="n">
+      <c r="AN6" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,17 +719,20 @@
   </mergeCells>
   <conditionalFormatting sqref="J7">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>Лист1!$AN$3 &lt; Лист1!$AJ$2+J$6-1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($G7="Рейсы",IF($E7="Л",J7&lt;2,J7&lt;1))</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($G7="Город/Пригород",AND($D7="К",J7="П"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:AN6">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>Лист1!$AN$2</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>WEEKDAY(Лист1!$AJ$2+J6-2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
